--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MejoresSoluciones" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0, 3, 1, 2, 2]</t>
+          <t>[0, 3, 1, 2]</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[1, 5, 2, 3, 0, 4, 4]</t>
+          <t>[1, 5, 2, 3, 0, 4]</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 1, 2, 3, 3]</t>
+          <t>[0, 4, 5, 1, 2, 3]</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 5, 2, 3, 6, 7, 7]</t>
+          <t>[0, 4, 1, 5, 2, 3, 6, 7]</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 1, 5, 6, 7, 7]</t>
+          <t>[0, 2, 3, 4, 1, 5, 6, 7]</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 5, 2, 3, 6, 9, 7, 8, 8]</t>
+          <t>[0, 4, 1, 5, 2, 3, 6, 9, 7, 8]</t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 6, 9, 1, 2, 3, 7, 8, 8]</t>
+          <t>[0, 4, 5, 6, 9, 1, 2, 3, 7, 8]</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 6, 9, 1, 2, 3, 7, 8, 8]</t>
+          <t>[0, 4, 5, 6, 9, 1, 2, 3, 7, 8]</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0, 3, 1, 2, 2]</t>
+          <t>[0, 3, 1, 2]</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 5, 2, 3, 3]</t>
+          <t>[0, 4, 1, 5, 2, 3]</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 1, 2, 3, 3]</t>
+          <t>[0, 4, 5, 1, 2, 3]</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 5, 2, 3, 6, 7, 7]</t>
+          <t>[0, 4, 1, 5, 2, 3, 6, 7]</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 5, 2, 3, 6, 7, 7]</t>
+          <t>[0, 1, 4, 5, 2, 3, 6, 7]</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[0, 5, 1, 8, 2, 3, 4, 7, 6, 9, 9]</t>
+          <t>[0, 5, 1, 8, 2, 3, 4, 7, 6, 9]</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 5, 9, 2, 3, 6, 7, 8, 8]</t>
+          <t>[0, 1, 4, 5, 9, 2, 3, 6, 7, 8]</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 5, 9, 2, 3, 6, 7, 8, 8]</t>
+          <t>[0, 1, 4, 5, 9, 2, 3, 6, 7, 8]</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[0, 3, 1, 2, 2]</t>
+          <t>[0, 3, 1, 2]</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 5, 2, 3, 3]</t>
+          <t>[0, 4, 1, 5, 2, 3]</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 1, 2, 3, 3]</t>
+          <t>[0, 4, 5, 1, 2, 3]</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 5, 2, 3, 6, 7, 7]</t>
+          <t>[0, 4, 1, 5, 2, 3, 6, 7]</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 5, 2, 3, 6, 7, 7]</t>
+          <t>[0, 1, 4, 5, 2, 3, 6, 7]</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[0, 5, 1, 8, 4, 7, 2, 3, 6, 9, 9]</t>
+          <t>[0, 5, 1, 8, 4, 7, 2, 3, 6, 9]</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 6, 9, 1, 2, 3, 7, 8, 8]</t>
+          <t>[0, 4, 5, 6, 9, 1, 2, 3, 7, 8]</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 6, 9, 1, 2, 3, 7, 8, 8]</t>
+          <t>[0, 4, 5, 6, 9, 1, 2, 3, 7, 8]</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[0, 3, 1, 2, 2]</t>
+          <t>[0, 3, 1, 2]</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 5, 2, 3, 3]</t>
+          <t>[0, 4, 1, 5, 2, 3]</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 1, 2, 3, 3]</t>
+          <t>[0, 4, 5, 1, 2, 3]</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 5, 2, 3, 6, 7, 7]</t>
+          <t>[0, 4, 1, 5, 2, 3, 6, 7]</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[0, 2, 4, 5, 1, 3, 6, 7, 7]</t>
+          <t>[0, 2, 4, 5, 1, 3, 6, 7]</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[0, 5, 1, 8, 2, 3, 4, 7, 6, 9, 9]</t>
+          <t>[0, 5, 1, 8, 2, 3, 4, 7, 6, 9]</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 9, 1, 5, 6, 7, 8, 8]</t>
+          <t>[0, 2, 3, 4, 9, 1, 5, 6, 7, 8]</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 9, 1, 5, 6, 7, 8, 8]</t>
+          <t>[0, 2, 3, 4, 9, 1, 5, 6, 7, 8]</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>[0, 3, 1, 2, 2]</t>
+          <t>[0, 3, 1, 2]</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>[1, 5, 2, 3, 0, 4, 4]</t>
+          <t>[1, 5, 2, 3, 0, 4]</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 1, 2, 3, 3]</t>
+          <t>[0, 4, 5, 1, 2, 3]</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 5, 2, 3, 6, 7, 7]</t>
+          <t>[0, 4, 1, 5, 2, 3, 6, 7]</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 1, 5, 6, 7, 7]</t>
+          <t>[0, 2, 3, 4, 1, 5, 6, 7]</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 5, 6, 9, 2, 3, 7, 8, 8]</t>
+          <t>[0, 4, 1, 5, 6, 9, 2, 3, 7, 8]</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 6, 9, 1, 2, 3, 7, 8, 8]</t>
+          <t>[0, 4, 5, 6, 9, 1, 2, 3, 7, 8]</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 6, 9, 1, 2, 3, 7, 8, 8]</t>
+          <t>[0, 4, 5, 6, 9, 1, 2, 3, 7, 8]</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>[0, 3, 1, 2, 2]</t>
+          <t>[0, 3, 1, 2]</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 5, 2, 3, 3]</t>
+          <t>[0, 4, 1, 5, 2, 3]</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 1, 2, 3, 3]</t>
+          <t>[0, 4, 5, 1, 2, 3]</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 5, 2, 3, 6, 7, 7]</t>
+          <t>[0, 4, 1, 5, 2, 3, 6, 7]</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 5, 2, 3, 6, 7, 7]</t>
+          <t>[0, 1, 4, 5, 2, 3, 6, 7]</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>[0, 5, 1, 8, 2, 3, 4, 7, 6, 9, 9]</t>
+          <t>[0, 5, 1, 8, 2, 3, 4, 7, 6, 9]</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 5, 9, 2, 3, 6, 7, 8, 8]</t>
+          <t>[0, 1, 4, 5, 9, 2, 3, 6, 7, 8]</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 5, 9, 2, 3, 6, 7, 8, 8]</t>
+          <t>[0, 1, 4, 5, 9, 2, 3, 6, 7, 8]</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[0, 3, 1, 2, 2]</t>
+          <t>[0, 3, 1, 2]</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 5, 2, 3, 3]</t>
+          <t>[0, 4, 1, 5, 2, 3]</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 1, 2, 3, 3]</t>
+          <t>[0, 4, 5, 1, 2, 3]</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 5, 2, 3, 6, 7, 7]</t>
+          <t>[0, 4, 1, 5, 2, 3, 6, 7]</t>
         </is>
       </c>
     </row>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>[0, 1, 4, 5, 2, 3, 6, 7, 7]</t>
+          <t>[0, 1, 4, 5, 2, 3, 6, 7]</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>[0, 5, 1, 8, 2, 3, 4, 7, 6, 9, 9]</t>
+          <t>[0, 5, 1, 8, 2, 3, 4, 7, 6, 9]</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 6, 9, 1, 2, 3, 7, 8, 8]</t>
+          <t>[0, 4, 5, 6, 9, 1, 2, 3, 7, 8]</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 6, 9, 1, 2, 3, 7, 8, 8]</t>
+          <t>[0, 4, 5, 6, 9, 1, 2, 3, 7, 8]</t>
         </is>
       </c>
     </row>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[0, 3, 1, 2, 2]</t>
+          <t>[0, 3, 1, 2]</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 5, 2, 3, 3]</t>
+          <t>[0, 4, 1, 5, 2, 3]</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>[0, 4, 5, 1, 2, 3, 3]</t>
+          <t>[0, 4, 5, 1, 2, 3]</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 5, 2, 3, 6, 7, 7]</t>
+          <t>[0, 4, 1, 5, 2, 3, 6, 7]</t>
         </is>
       </c>
     </row>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>[0, 2, 4, 5, 1, 3, 6, 7, 7]</t>
+          <t>[0, 2, 4, 5, 1, 3, 6, 7]</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>[0, 5, 1, 8, 2, 3, 4, 7, 6, 9, 9]</t>
+          <t>[0, 5, 1, 8, 2, 3, 4, 7, 6, 9]</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>[0, 2, 3, 4, 9, 1, 5, 6, 7, 8, 8]</t>
+          <t>[0, 2, 3, 4, 9, 1, 5, 6, 7, 8]</t>
         </is>
       </c>
     </row>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3204,6 +3204,178 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>10</v>
+      </c>
+      <c r="C65" t="n">
+        <v>5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.00241117590813051</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0001999999999999999</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.001177088096413421</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.003788264004543931</v>
+      </c>
+      <c r="L65" t="n">
+        <v>20.35202717781067</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>[0, 2, 3, 4, 9, 1, 5, 6, 7, 8]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>12</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.5013628965667645</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.3628016890754623</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1.530831252308893</v>
+      </c>
+      <c r="L66" t="n">
+        <v>7309.653772354126</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>[0, 4, 9, 1, 8, 11, 2, 3, 7, 5, 6, 10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>12</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.3461964696415961</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.3035761325011092</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9831059354760385</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4999.888510465622</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>[0, 4, 9, 11, 1, 2, 3, 8, 5, 6, 7, 10]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>12</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.07534679957766725</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.03807334193869524</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.1550868081830292</v>
+      </c>
+      <c r="L68" t="n">
+        <v>4326.828593969345</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>[0, 4, 9, 11, 1, 2, 3, 8, 5, 6, 7, 10]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
